--- a/RPL_V2/Update_Feb_2025/Зенит/club_zenit.xlsx
+++ b/RPL_V2/Update_Feb_2025/Зенит/club_zenit.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="298">
   <si>
     <t>type</t>
   </si>
@@ -760,6 +761,159 @@
   </si>
   <si>
     <t>Бразильский нападающий</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ярослав Михайлов</t>
+  </si>
+  <si>
+    <t>Богдан Москвичев</t>
+  </si>
+  <si>
+    <t>Никита Гойло</t>
+  </si>
+  <si>
+    <t>Роберт Ренан</t>
+  </si>
+  <si>
+    <t>Жерсон</t>
+  </si>
+  <si>
+    <t>zs_renan</t>
+  </si>
+  <si>
+    <t>Нурали Алип</t>
+  </si>
+  <si>
+    <t>Роман Вега</t>
+  </si>
+  <si>
+    <t>Вилмар Барриос</t>
+  </si>
+  <si>
+    <t>zs_vega</t>
+  </si>
+  <si>
+    <t>zs_zdjelar</t>
+  </si>
+  <si>
+    <t>Саша Здьелар</t>
+  </si>
+  <si>
+    <t>zs_gerson</t>
+  </si>
+  <si>
+    <t>zs_wendel</t>
+  </si>
+  <si>
+    <t>zs_mostovoy</t>
+  </si>
+  <si>
+    <t>zs_henrique</t>
+  </si>
+  <si>
+    <t>zs_gondou</t>
+  </si>
+  <si>
+    <t>zs_cassierra</t>
+  </si>
+  <si>
+    <t>Крайний защитник</t>
+  </si>
+  <si>
+    <t>27-летний (21.06.1998) российский вратарь. Перешёл в «Зенит» 14.06.2024 из «Балтики» Калининград</t>
+  </si>
+  <si>
+    <t>38-летний (28.01.1987) российский вратарь. Перешёл в «Зенит» 16.06.2015 из «Анжи»</t>
+  </si>
+  <si>
+    <t>28-летний (10.04.1997) бразильский защитник. Перешёл в «Зенит» в январе 2024 из «Флуминенсе»</t>
+  </si>
+  <si>
+    <t>21-летний (11.10.2003) бразильский центральный защитник. Перешёл в «Зенит» в январе 2023 из «Коринтианс»</t>
+  </si>
+  <si>
+    <t>25-летний (22.12.1999) казахстанский защитник. Перешёл в «Зенит» в феврале 2022 из «Кайрата»</t>
+  </si>
+  <si>
+    <t>31-летний (22.03.1994) бразильский левый защитник. Перешёл в «Зенит» летом 2019 из «Гамбурга»</t>
+  </si>
+  <si>
+    <t>21-летний (01.01.2004) аргентинский левый защитник. Перешёл в «Зенит» в июле 2025 из «Архентинос Хуниорс»</t>
+  </si>
+  <si>
+    <t>30-летний (20.05.1995) российский правый защитник. Перешёл в «Зенит» 02.09.2019 из «Витесса»</t>
+  </si>
+  <si>
+    <t>31-летний (16.10.1993) колумбийский опорный полузащитник. Перешёл в «Зенит» 01.02.2019 из «Бока Хуниорс»</t>
+  </si>
+  <si>
+    <t>30-летний (20.03.1995) сербский полузащитник. Перешёл в «Зенит» 21.02.2025 из ЦСКА (Москва)</t>
+  </si>
+  <si>
+    <t>28-летний (20.05.1997) бразильский полузащитник. Перешёл в «Зенит» в июле 2025 из «Фламенго»</t>
+  </si>
+  <si>
+    <t>27-летний (28.09.1997) бразильский полузащитник. Перешёл в «Зенит» 06.10.2020 из «Спортинга»</t>
+  </si>
+  <si>
+    <t>35-летний (13.10.1989) российский полузащитник. Перешёл в «Зенит» 28.06.2017 на правах свободного агента из «Ростова»</t>
+  </si>
+  <si>
+    <t>19-летний (05.02.2006) бразильский вингер. Перешёл в «Зенит» 04.01.2024 из «Коринтианса»</t>
+  </si>
+  <si>
+    <t>27-летний (05.11.1997) российский полузащитник. Перешёл в «Зенит» в феврале 2019 из «Химок»</t>
+  </si>
+  <si>
+    <t>24-летний (02.01.2001) бразильский вингер. Перешёл в «Зенит» 20.01.2025 из «Ботафого»</t>
+  </si>
+  <si>
+    <t>25-летний (28.07.1999) российский вингер/центральный нападающий. Перешёл в «Зенит» 20.06.2024 из «Локомотива»</t>
+  </si>
+  <si>
+    <t>24-летний (22.06.2001) аргентинский нападающий. Перешёл в «Зенит» 27.08.2024 из «Архентинос Хуниорс»</t>
+  </si>
+  <si>
+    <t>28-летний (13.04.1997) колумбийский нападающий. Перешёл в «Зенит» 30.06.2022 из «Сочи»</t>
+  </si>
+  <si>
+    <t>28-летний (07.03.1997) российский нападающий. Перешёл в «Зенит» 30.08.2024 из «Спартака»</t>
+  </si>
+  <si>
+    <t>Какой тренер привёл «Зенит» к первому титулу чемпиона России в 2007 году?</t>
+  </si>
+  <si>
+    <t>С каким счётом «Зенит» обыграл «Рейнджерс» в финале Кубка УЕФА 2008 года?</t>
+  </si>
+  <si>
+    <t>Кто провёл наибольшее количество матчей за «Зенит» (456 игр)?</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром в истории «Зенита» (162 гола)?</t>
+  </si>
+  <si>
+    <t>Кто занимает пост президента клуба?</t>
+  </si>
+  <si>
+    <t>На каком месте «Зенит» финишировал в РПЛ-2024/25?</t>
+  </si>
+  <si>
+    <t>Какой персонаж мультсериала «Симпсоны» стал официальным талисманом «Зенита» в 2014 году?</t>
+  </si>
+  <si>
+    <t>Какой знаменитый советский композитор был одним из ярых болельщиков «Зенита»?</t>
+  </si>
+  <si>
+    <t>Какому игроку «Зенита» в 2007-м астронавт Юрий Маленченко подарил футболку прямо из космоса?</t>
+  </si>
+  <si>
+    <t>Кто забил оба гола в финале Кубка УЕФА 2008 года против «Рейнджерс»?</t>
+  </si>
+  <si>
+    <t>Как назывался стадион «Зенита» до того, как стать «Газпром Ареной»?</t>
   </si>
 </sst>
 </file>
@@ -794,9 +948,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1113,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3583,4 +3743,1889 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>